--- a/Model/BayesLSTM/Multivariate/result/Service/USA.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>75.1094970703125</v>
+        <v>76.42897033691406</v>
       </c>
       <c r="C2" t="n">
-        <v>74.45114898681641</v>
+        <v>75.86381530761719</v>
       </c>
       <c r="D2" t="n">
-        <v>75.76784515380859</v>
+        <v>76.99412536621094</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>75.05529022216797</v>
+        <v>76.47547912597656</v>
       </c>
       <c r="C3" t="n">
-        <v>73.88461303710938</v>
+        <v>75.20820617675781</v>
       </c>
       <c r="D3" t="n">
-        <v>76.22596740722656</v>
+        <v>77.74275207519531</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>75.08076477050781</v>
+        <v>76.84962463378906</v>
       </c>
       <c r="C4" t="n">
-        <v>74.00669860839844</v>
+        <v>75.72287750244141</v>
       </c>
       <c r="D4" t="n">
-        <v>76.15483093261719</v>
+        <v>77.97637176513672</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>75.00351715087891</v>
+        <v>76.85549926757812</v>
       </c>
       <c r="C5" t="n">
-        <v>74.03420257568359</v>
+        <v>75.84959411621094</v>
       </c>
       <c r="D5" t="n">
-        <v>75.97283172607422</v>
+        <v>77.86140441894531</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>74.99760437011719</v>
+        <v>76.68598937988281</v>
       </c>
       <c r="C6" t="n">
-        <v>73.79670715332031</v>
+        <v>75.76990509033203</v>
       </c>
       <c r="D6" t="n">
-        <v>76.19850158691406</v>
+        <v>77.60207366943359</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>74.95403289794922</v>
+        <v>76.77061462402344</v>
       </c>
       <c r="C7" t="n">
-        <v>73.619140625</v>
+        <v>76.10422515869141</v>
       </c>
       <c r="D7" t="n">
-        <v>76.28892517089844</v>
+        <v>77.43700408935547</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>75.19710540771484</v>
+        <v>76.48513793945312</v>
       </c>
       <c r="C8" t="n">
-        <v>73.98284149169922</v>
+        <v>75.53521728515625</v>
       </c>
       <c r="D8" t="n">
-        <v>76.41136932373047</v>
+        <v>77.43505859375</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>74.99564361572266</v>
+        <v>76.69654846191406</v>
       </c>
       <c r="C9" t="n">
-        <v>73.54915618896484</v>
+        <v>75.42411041259766</v>
       </c>
       <c r="D9" t="n">
-        <v>76.44213104248047</v>
+        <v>77.96898651123047</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>75.03989410400391</v>
+        <v>76.46749877929688</v>
       </c>
       <c r="C10" t="n">
-        <v>74.44088745117188</v>
+        <v>75.31829071044922</v>
       </c>
       <c r="D10" t="n">
-        <v>75.63890075683594</v>
+        <v>77.61670684814453</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>74.90554809570312</v>
+        <v>76.58563232421875</v>
       </c>
       <c r="C11" t="n">
-        <v>73.93392181396484</v>
+        <v>75.75569915771484</v>
       </c>
       <c r="D11" t="n">
-        <v>75.87717437744141</v>
+        <v>77.41556549072266</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>75.10224914550781</v>
+        <v>76.8262939453125</v>
       </c>
       <c r="C12" t="n">
-        <v>74.20134735107422</v>
+        <v>76.16558074951172</v>
       </c>
       <c r="D12" t="n">
-        <v>76.00315093994141</v>
+        <v>77.48700714111328</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>75.20478820800781</v>
+        <v>76.75592803955078</v>
       </c>
       <c r="C13" t="n">
-        <v>74.16077423095703</v>
+        <v>75.58232879638672</v>
       </c>
       <c r="D13" t="n">
-        <v>76.24880218505859</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>75.29170989990234</v>
-      </c>
-      <c r="C14" t="n">
-        <v>74.12023162841797</v>
-      </c>
-      <c r="D14" t="n">
-        <v>76.46318817138672</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>75.29939270019531</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74.31210327148438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>76.28668212890625</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>75.42062377929688</v>
-      </c>
-      <c r="C16" t="n">
-        <v>74.04851531982422</v>
-      </c>
-      <c r="D16" t="n">
-        <v>76.79273223876953</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>75.53364562988281</v>
-      </c>
-      <c r="C17" t="n">
-        <v>74.0762939453125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>76.99099731445312</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>75.24370574951172</v>
-      </c>
-      <c r="C18" t="n">
-        <v>73.69918060302734</v>
-      </c>
-      <c r="D18" t="n">
-        <v>76.78823089599609</v>
+        <v>77.92952728271484</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>75.39182968139649</v>
+        <v>76.89204406738281</v>
       </c>
       <c r="C2" t="n">
-        <v>74.52162409782281</v>
+        <v>75.93589019775391</v>
       </c>
       <c r="D2" t="n">
-        <v>76.26203526497017</v>
+        <v>77.84819793701172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>77.12103652954102</v>
+        <v>76.79088592529297</v>
       </c>
       <c r="C3" t="n">
-        <v>76.18015763650834</v>
+        <v>75.88725280761719</v>
       </c>
       <c r="D3" t="n">
-        <v>78.06191542257369</v>
+        <v>77.69451904296875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>76.57771301269531</v>
+        <v>76.74181365966797</v>
       </c>
       <c r="C4" t="n">
-        <v>75.47374878671648</v>
+        <v>75.64299774169922</v>
       </c>
       <c r="D4" t="n">
-        <v>77.68167723867414</v>
+        <v>77.84062957763672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>75.48891448974609</v>
+        <v>76.90806579589844</v>
       </c>
       <c r="C5" t="n">
-        <v>74.46678112248405</v>
+        <v>76.11849975585938</v>
       </c>
       <c r="D5" t="n">
-        <v>76.51104785700814</v>
+        <v>77.6976318359375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>75.04524230957031</v>
+        <v>76.95970153808594</v>
       </c>
       <c r="C6" t="n">
-        <v>74.15288599279668</v>
+        <v>76.38585662841797</v>
       </c>
       <c r="D6" t="n">
-        <v>75.93759862634394</v>
+        <v>77.53354644775391</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>74.25679016113281</v>
+        <v>76.22716522216797</v>
       </c>
       <c r="C2" t="n">
-        <v>73.52407836914062</v>
+        <v>75.30353546142578</v>
       </c>
       <c r="D2" t="n">
-        <v>74.989501953125</v>
+        <v>77.15079498291016</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>74.20176696777344</v>
+        <v>75.89540100097656</v>
       </c>
       <c r="C3" t="n">
-        <v>73.04180908203125</v>
+        <v>74.86882781982422</v>
       </c>
       <c r="D3" t="n">
-        <v>75.36172485351562</v>
+        <v>76.92197418212891</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>73.85786437988281</v>
+        <v>76.09989929199219</v>
       </c>
       <c r="C4" t="n">
-        <v>73.15229034423828</v>
+        <v>74.71745300292969</v>
       </c>
       <c r="D4" t="n">
-        <v>74.56343841552734</v>
+        <v>77.48234558105469</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>74.13375854492188</v>
+        <v>76.12432861328125</v>
       </c>
       <c r="C5" t="n">
-        <v>73.62334442138672</v>
+        <v>75.18370056152344</v>
       </c>
       <c r="D5" t="n">
-        <v>74.64417266845703</v>
+        <v>77.06495666503906</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>74.08993530273438</v>
+        <v>76.20140075683594</v>
       </c>
       <c r="C6" t="n">
-        <v>73.15291595458984</v>
+        <v>75.38571929931641</v>
       </c>
       <c r="D6" t="n">
-        <v>75.02695465087891</v>
+        <v>77.01708221435547</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>74.24486541748047</v>
+        <v>76.20628356933594</v>
       </c>
       <c r="C7" t="n">
-        <v>73.13930511474609</v>
+        <v>74.97084045410156</v>
       </c>
       <c r="D7" t="n">
-        <v>75.35042572021484</v>
+        <v>77.44172668457031</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>74.18388366699219</v>
+        <v>76.162353515625</v>
       </c>
       <c r="C8" t="n">
-        <v>72.99738311767578</v>
+        <v>75.05215454101562</v>
       </c>
       <c r="D8" t="n">
-        <v>75.37038421630859</v>
+        <v>77.27255249023438</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>73.88510894775391</v>
+        <v>75.95133972167969</v>
       </c>
       <c r="C9" t="n">
-        <v>73.00534057617188</v>
+        <v>74.66363525390625</v>
       </c>
       <c r="D9" t="n">
-        <v>74.76487731933594</v>
+        <v>77.23904418945312</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>74.37590026855469</v>
+        <v>76.17829895019531</v>
       </c>
       <c r="C10" t="n">
-        <v>73.15837860107422</v>
+        <v>74.84288787841797</v>
       </c>
       <c r="D10" t="n">
-        <v>75.59342193603516</v>
+        <v>77.51371002197266</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>74.41309356689453</v>
+        <v>76.17148590087891</v>
       </c>
       <c r="C11" t="n">
-        <v>73.29532623291016</v>
+        <v>75.00877380371094</v>
       </c>
       <c r="D11" t="n">
-        <v>75.53086090087891</v>
+        <v>77.33419799804688</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>74.11617279052734</v>
+        <v>75.93937683105469</v>
       </c>
       <c r="C12" t="n">
-        <v>73.26541900634766</v>
+        <v>74.98332214355469</v>
       </c>
       <c r="D12" t="n">
-        <v>74.96692657470703</v>
+        <v>76.89543151855469</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>74.32041931152344</v>
+        <v>75.87416076660156</v>
       </c>
       <c r="C13" t="n">
-        <v>73.23378753662109</v>
+        <v>75.31440734863281</v>
       </c>
       <c r="D13" t="n">
-        <v>75.40705108642578</v>
+        <v>76.43391418457031</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>74.30351257324219</v>
+        <v>76.03096771240234</v>
       </c>
       <c r="C14" t="n">
-        <v>73.02896881103516</v>
+        <v>75.08296203613281</v>
       </c>
       <c r="D14" t="n">
-        <v>75.57805633544922</v>
+        <v>76.97897338867188</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>74.45936584472656</v>
+        <v>76.13162231445312</v>
       </c>
       <c r="C15" t="n">
-        <v>73.45656585693359</v>
+        <v>75.13821411132812</v>
       </c>
       <c r="D15" t="n">
-        <v>75.46216583251953</v>
+        <v>77.12503051757812</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>74.05174255371094</v>
+        <v>76.21661376953125</v>
       </c>
       <c r="C16" t="n">
-        <v>72.59577178955078</v>
+        <v>74.91089630126953</v>
       </c>
       <c r="D16" t="n">
-        <v>75.50771331787109</v>
+        <v>77.52233123779297</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>74.68330383300781</v>
+        <v>76.39614868164062</v>
       </c>
       <c r="C17" t="n">
-        <v>73.27271270751953</v>
+        <v>75.41484832763672</v>
       </c>
       <c r="D17" t="n">
-        <v>76.09389495849609</v>
+        <v>77.37744903564453</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>74.29542541503906</v>
+        <v>76.3369140625</v>
       </c>
       <c r="C18" t="n">
-        <v>73.14916229248047</v>
+        <v>75.58268737792969</v>
       </c>
       <c r="D18" t="n">
-        <v>75.44168853759766</v>
+        <v>77.09114074707031</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>75.81098403930665</v>
+        <v>75.44296417236328</v>
       </c>
       <c r="C2" t="n">
-        <v>74.84882317487379</v>
+        <v>74.46596151801694</v>
       </c>
       <c r="D2" t="n">
-        <v>76.77314490373951</v>
+        <v>76.41996682670961</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>76.01764221191407</v>
+        <v>75.0378921508789</v>
       </c>
       <c r="C3" t="n">
-        <v>75.25602547459968</v>
+        <v>73.87104514035043</v>
       </c>
       <c r="D3" t="n">
-        <v>76.77925894922845</v>
+        <v>76.20473916140737</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>76.03855667114257</v>
+        <v>74.78585281372071</v>
       </c>
       <c r="C4" t="n">
-        <v>74.8413316806885</v>
+        <v>74.22153718727064</v>
       </c>
       <c r="D4" t="n">
-        <v>77.23578166159665</v>
+        <v>75.35016844017078</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>75.16300354003906</v>
+        <v>75.60010147094727</v>
       </c>
       <c r="C5" t="n">
-        <v>74.63088170378479</v>
+        <v>74.95733270022897</v>
       </c>
       <c r="D5" t="n">
-        <v>75.69512537629332</v>
+        <v>76.24287024166556</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>74.36220245361328</v>
+        <v>75.71200790405274</v>
       </c>
       <c r="C6" t="n">
-        <v>73.14518081833134</v>
+        <v>74.8648290289652</v>
       </c>
       <c r="D6" t="n">
-        <v>75.57922408889522</v>
+        <v>76.55918677914028</v>
       </c>
     </row>
   </sheetData>
